--- a/data/auto_extract_dataset_test.xlsx
+++ b/data/auto_extract_dataset_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11ADDBC3-5A5A-4955-B549-9E7BF7DA5575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2A9B86-5B2B-4A1E-B268-6A5770566CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Property Material" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scatters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fatigue life</t>
   </si>
   <si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>yield strength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scatter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +652,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -878,10 +878,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -950,10 +950,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1006,10 +1006,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1038,10 +1038,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1110,10 +1110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -1884,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99946E2A-07C9-459F-8112-0DB53A439F3C}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1895,7 +1895,7 @@
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +1992,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -2066,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F09D09-0C6D-417E-8CCF-8BFF57F5E493}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2077,24 +2077,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1">
         <v>58</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>58</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1">
         <v>58</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1">
         <v>58</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>58</v>
@@ -2149,7 +2149,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>58</v>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>58</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>58</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
         <v>58</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1">
         <v>58</v>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1">
         <v>58</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1">
         <v>58</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <v>58</v>
@@ -2237,84 +2237,84 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="1">
         <v>58</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>58</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1">
         <v>58</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1">
         <v>58</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1">
         <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1">
         <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1">
         <v>33</v>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="1">
         <v>33</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1">
         <v>33</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1">
         <v>33</v>
@@ -2374,7 +2374,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <v>625</v>
